--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E8" s="3">
         <v>672700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>727000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>712800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>703700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>701400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>724700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>664700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>644800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>660100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>608200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>550600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>553000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>438800</v>
+      </c>
+      <c r="E9" s="3">
         <v>441400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>483200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>472100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>478300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>463000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>471700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>460400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>445800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>420500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>430600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>396700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>362700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>358800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E10" s="3">
         <v>231300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>243800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>240700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>225400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>238400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>253000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>239600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>224300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>229500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>211500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>187900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>194200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>577500</v>
+      </c>
+      <c r="E17" s="3">
         <v>584000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>622600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>612800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>618600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>602700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>620900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>599100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>583100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>554100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>565800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>519700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>481200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>476600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E18" s="3">
         <v>88700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>85100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>98700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,137 +1245,144 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E21" s="3">
         <v>112500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>125300</v>
       </c>
       <c r="F21" s="3">
         <v>125300</v>
       </c>
       <c r="G21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="H21" s="3">
         <v>105700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>119900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>123900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>108800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>116200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>89500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5200</v>
       </c>
       <c r="F22" s="3">
         <v>5200</v>
       </c>
       <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4800</v>
       </c>
       <c r="O22" s="3">
         <v>4800</v>
@@ -1351,104 +1391,113 @@
         <v>4800</v>
       </c>
       <c r="Q22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E23" s="3">
         <v>86600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>98800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>80500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>96400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>103500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>91700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21600</v>
+        <v>18400</v>
       </c>
       <c r="E24" s="3">
         <v>21600</v>
       </c>
       <c r="F24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G24" s="3">
         <v>24300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E26" s="3">
         <v>65000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>70300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E27" s="3">
         <v>65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>72900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>70300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,37 +1693,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-19100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>26000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E33" s="3">
         <v>65000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>102400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E35" s="3">
         <v>65000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>102400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E41" s="3">
         <v>210000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>177800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>203800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>191200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>199900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>204700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>317300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>362200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>349600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>308400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>295900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>296300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>262200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E43" s="3">
         <v>501500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>529500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>534300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>515300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>542400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>534600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>530600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>509900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>483000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>497700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>459200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>408400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>415000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>350100</v>
+      </c>
+      <c r="E44" s="3">
         <v>361500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>332800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>359500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>365600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>360500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>334100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>344200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>344900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>319600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>293500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>272800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>260400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>249200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E45" s="3">
         <v>86100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>56100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1121200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1159100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1122600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1173600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1157700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1170400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1125700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1249200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1279900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1204300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1151000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1084000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1025200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>993000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>699100</v>
+      </c>
+      <c r="E48" s="3">
         <v>685500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>588900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>569800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>552500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>517900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>509300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>511100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>507700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>483800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>484600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>462500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>459700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>466100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>378200</v>
+      </c>
+      <c r="E49" s="3">
         <v>379100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>374000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>383700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>388000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>386700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>274000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>277100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>280200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>277400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>268100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>268800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>270500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E52" s="3">
         <v>59600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>57100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>69000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2262200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2283300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2142600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2205900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2166300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2144000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1976600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2095000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2131300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2032400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1979700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1880300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1817700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1794100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>210100</v>
+      </c>
+      <c r="E57" s="3">
         <v>229100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>237500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>238700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>226700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>230600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>201300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>201500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>190600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>194000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>179000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>157800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E58" s="3">
         <v>110900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>74000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>73900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>306900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>277100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>245000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E59" s="3">
         <v>191100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>193100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>157100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>183000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>224600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>191700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>216900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>216200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>180600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>157700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>498200</v>
+      </c>
+      <c r="E60" s="3">
         <v>531100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>482900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>446400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>493100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>487600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>469400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>397700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>435000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>415100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>484100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>654900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>615500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>563400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>595800</v>
+      </c>
+      <c r="E61" s="3">
         <v>596800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>584400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>644400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>632500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>630600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>499600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>687500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>667700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>631700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>537300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>298100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>297800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>324700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E62" s="3">
         <v>227700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>172600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>157300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>158500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>149800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>201700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>104600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>125300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>121300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1327400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1371700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1255300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1266200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1298900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1294400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1123600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1263300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1309000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1156100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1129600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1082600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1041200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1013500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1368600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1361100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1303200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1298300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1223800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1213800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1143400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1089100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1016400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1120200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1056900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1035900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>977300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>977500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>934800</v>
+      </c>
+      <c r="E76" s="3">
         <v>911600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>887300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>939700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>867400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>849600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>853000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>831700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>822300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>876300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>850100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>797700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>776500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>780600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E81" s="3">
         <v>65000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>102400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E83" s="3">
         <v>21200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19300</v>
       </c>
       <c r="I83" s="3">
         <v>19300</v>
       </c>
       <c r="J83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E89" s="3">
         <v>86100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>122600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>80400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>63300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>99700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-124200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,22 +4625,22 @@
         <v>-26600</v>
       </c>
       <c r="E96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-26800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-23400</v>
       </c>
       <c r="K96" s="3">
         <v>-23400</v>
@@ -4415,22 +4649,25 @@
         <v>-23400</v>
       </c>
       <c r="M96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-109600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>61300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-184700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-61500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>32200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-112600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>629700</v>
+      </c>
+      <c r="E8" s="3">
         <v>662000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>672700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>727000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>712800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>703700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>701400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>724700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>664700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>644800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>660100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>608200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>550600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>553000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>420500</v>
+      </c>
+      <c r="E9" s="3">
         <v>438800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>441400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>483200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>472100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>478300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>463000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>471700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>460400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>445800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>420500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>430600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>396700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>362700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>358800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E10" s="3">
         <v>223200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>231300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>243800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>240700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>225400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>238400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>253000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>239600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>224300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>211500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>187900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>194200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>545200</v>
+      </c>
+      <c r="E17" s="3">
         <v>577500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>584000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>622600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>612800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>618600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>602700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>620900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>599100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>583100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>554100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>565800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>519700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>481200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>476600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1214,52 @@
         <v>84500</v>
       </c>
       <c r="E18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="F18" s="3">
         <v>88700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>98700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>103800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,146 +1278,153 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E21" s="3">
         <v>108900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>125300</v>
       </c>
       <c r="G21" s="3">
         <v>125300</v>
       </c>
       <c r="H21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="I21" s="3">
         <v>105700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>119900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>116200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>89500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5200</v>
       </c>
       <c r="G22" s="3">
         <v>5200</v>
       </c>
       <c r="H22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4800</v>
       </c>
       <c r="P22" s="3">
         <v>4800</v>
@@ -1394,110 +1433,119 @@
         <v>4800</v>
       </c>
       <c r="R22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E23" s="3">
         <v>82800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>98800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>80500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>96400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>103500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>91700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>79700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>21600</v>
       </c>
       <c r="F24" s="3">
         <v>21600</v>
       </c>
       <c r="G24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H24" s="3">
         <v>24300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E26" s="3">
         <v>64400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>70300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>58000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E27" s="3">
         <v>64400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>72900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>58000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,29 +1767,29 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-19100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>26000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E33" s="3">
         <v>64400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>58100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>73800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>102400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>58000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E35" s="3">
         <v>64400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>58100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>73800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>102400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>58000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E41" s="3">
         <v>211100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>210000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>177800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>203800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>191200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>199900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>204700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>317300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>362200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>349600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>308400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>295900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>296300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>262200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>460500</v>
+      </c>
+      <c r="E43" s="3">
         <v>475800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>501500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>529500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>534300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>515300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>542400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>534600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>530600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>509900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>483000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>497700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>459200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>408400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>415000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>346500</v>
+      </c>
+      <c r="E44" s="3">
         <v>350100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>361500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>332800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>359500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>365600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>360500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>334100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>344200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>344900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>319600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>293500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>272800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>260400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>249200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E45" s="3">
         <v>84200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>82500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>85600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>67600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>56100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1121200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1159100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1122600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1173600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1157700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1170400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1125700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1249200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1279900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1204300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1151000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1084000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1025200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>993000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>685700</v>
+      </c>
+      <c r="E48" s="3">
         <v>699100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>685500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>588900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>569800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>552500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>517900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>509300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>511100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>507700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>483800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>484600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>462500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>459700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>466100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E49" s="3">
         <v>378200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>379100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>374000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>383700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>388000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>386700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>274000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>277100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>280200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>277400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>268100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>268800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>270500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E52" s="3">
         <v>63700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>69000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2338500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2262200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2283300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2142600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2205900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2166300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2144000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1976600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2095000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2131300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2032400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1979700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1880300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1817700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1794100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E57" s="3">
         <v>210100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>229100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>237500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>238700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>226700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>230600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>201300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>190600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>194000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>179000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>157800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>160700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E58" s="3">
         <v>84700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>110900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>74000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>39200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>73900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>306900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>277100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>245000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E59" s="3">
         <v>203400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>191100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>193100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>157100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>183000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>224600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>216900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>216200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>180600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>157700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432800</v>
+      </c>
+      <c r="E60" s="3">
         <v>498200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>531100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>482900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>446400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>493100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>487600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>469400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>397700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>435000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>415100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>484100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>654900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>615500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>563400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>735100</v>
+      </c>
+      <c r="E61" s="3">
         <v>595800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>596800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>584400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>644400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>632500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>630600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>499600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>687500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>667700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>631700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>537300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>298100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>297800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>324700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E62" s="3">
         <v>217000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>172600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>157300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>158500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>149800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>201700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>104600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>125300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1399700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1327400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1371700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1255300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1266200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1298900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1294400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1123600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1263300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1309000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1156100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1129600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1082600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1041200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1013500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1432800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1368600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1361100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1303200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1298300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1223800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1213800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1143400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1089100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1016400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1120200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1056900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1035900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>977300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>977500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>938800</v>
+      </c>
+      <c r="E76" s="3">
         <v>934800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>911600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>887300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>939700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>867400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>849600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>853000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>831700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>822300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>876300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>850100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>797700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>776500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>780600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E81" s="3">
         <v>64400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>58100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>73800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>102400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>58000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E83" s="3">
         <v>21600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>19300</v>
       </c>
       <c r="J83" s="3">
         <v>19300</v>
       </c>
       <c r="K83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E89" s="3">
         <v>90700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>122600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>80400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>69800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>99700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-124200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4628,22 +4861,22 @@
         <v>-26600</v>
       </c>
       <c r="F96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-26800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-23400</v>
       </c>
       <c r="L96" s="3">
         <v>-23400</v>
@@ -4652,22 +4885,25 @@
         <v>-23400</v>
       </c>
       <c r="N96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-109600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>61300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-184700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-61500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-112600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E8" s="3">
         <v>629700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>662000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>672700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>727000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>712800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>703700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>701400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>724700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>664700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>644800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>660100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>608200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>550600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>553000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>409500</v>
+      </c>
+      <c r="E9" s="3">
         <v>420500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>438800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>441400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>483200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>472100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>478300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>463000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>471700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>460400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>445800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>420500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>430600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>396700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>362700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>358800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E10" s="3">
         <v>209200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>223200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>231300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>243800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>240700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>225400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>238400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>253000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>239600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>218900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>224300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>211500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>187900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>194200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>534900</v>
+      </c>
+      <c r="E17" s="3">
         <v>545200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>577500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>584000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>622600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>612800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>618600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>602700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>620900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>599100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>583100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>554100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>565800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>519700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>481200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>476600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>84500</v>
+        <v>82500</v>
       </c>
       <c r="E18" s="3">
         <v>84500</v>
       </c>
       <c r="F18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="G18" s="3">
         <v>88700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>98700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,155 +1312,162 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E21" s="3">
         <v>110600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>125300</v>
       </c>
       <c r="H21" s="3">
         <v>125300</v>
       </c>
       <c r="I21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="J21" s="3">
         <v>105700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>119900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>116200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>107600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>89500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5200</v>
       </c>
       <c r="H22" s="3">
         <v>5200</v>
       </c>
       <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4800</v>
       </c>
       <c r="Q22" s="3">
         <v>4800</v>
@@ -1436,116 +1476,125 @@
         <v>4800</v>
       </c>
       <c r="S22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E23" s="3">
         <v>84400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>80500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>96400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>79700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>21600</v>
       </c>
       <c r="G24" s="3">
         <v>21600</v>
       </c>
       <c r="H24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I24" s="3">
         <v>24300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E26" s="3">
         <v>63400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>75200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E27" s="3">
         <v>63400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>70300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>58000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,29 +1831,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-19100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E33" s="3">
         <v>63400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>58100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>73800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>102400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E35" s="3">
         <v>63400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>58100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>73800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>102400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236600</v>
+      </c>
+      <c r="E41" s="3">
         <v>326500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>210000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>177800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>203800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>191200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>199900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>317300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>362200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>349600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>308400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>295900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>296300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>262200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>455300</v>
+      </c>
+      <c r="E43" s="3">
         <v>460500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>475800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>501500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>529500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>534300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>515300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>542400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>534600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>530600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>509900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>483000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>497700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>459200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>408400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>415000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E44" s="3">
         <v>346500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>350100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>361500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>332800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>359500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>365600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>360500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>334100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>344200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>319600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>293500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>272800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>260400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>249200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E45" s="3">
         <v>87000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>86100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>85600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>67600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>56100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1096700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1220500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1121200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1159100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1122600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1173600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1157700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1170400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1125700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1249200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1279900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1204300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1151000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1025200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>993000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>705300</v>
+      </c>
+      <c r="E48" s="3">
         <v>685700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>699100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>685500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>588900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>569800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>552500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>517900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>509300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>511100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>507700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>483800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>484600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>462500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>459700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>466100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E49" s="3">
         <v>369100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>378200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>379100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>374000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>383700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>388000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>386700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>277100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>280200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>277400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>268100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>268800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>270500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E52" s="3">
         <v>63200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>69000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>57600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>64500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2244600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2338500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2262200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2283300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2142600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2205900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2166300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2144000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1976600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2095000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2131300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2032400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1979700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1880300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1817700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1794100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E57" s="3">
         <v>202700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>210100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>237500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>238700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>226700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>230600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>201500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>190600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>194000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>179000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>160700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E58" s="3">
         <v>58100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>84700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>110900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>66000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>39200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>73900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>306900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>277100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>245000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E59" s="3">
         <v>172000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>191100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>193100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>157100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>224600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>216900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>216200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>169000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>180600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>157700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>406800</v>
+      </c>
+      <c r="E60" s="3">
         <v>432800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>498200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>531100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>482900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>446400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>493100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>487600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>469400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>397700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>435000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>415100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>484100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>654900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>615500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>563400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E61" s="3">
         <v>735100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>595800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>596800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>584400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>644400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>632500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>630600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>499600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>687500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>667700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>631700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>537300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>298100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>297800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>324700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E62" s="3">
         <v>215800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>217000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>227700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>172600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>157300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>158500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>201700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>104600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>125300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>123700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1257500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1399700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1327400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1371700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1255300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1266200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1298900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1294400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1123600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1263300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1309000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1156100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1129600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1082600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1041200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1013500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1445900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1432800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1368600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1361100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1303200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1298300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1223800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1213800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1143400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1089100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1016400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1120200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1056900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1035900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>977300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>977500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>987100</v>
+      </c>
+      <c r="E76" s="3">
         <v>938800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>934800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>911600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>887300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>939700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>867400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>849600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>853000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>831700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>822300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>876300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>850100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>797700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>776500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>780600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E81" s="3">
         <v>63400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>58100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>73800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>102400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E83" s="3">
         <v>21800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>19300</v>
       </c>
       <c r="K83" s="3">
         <v>19300</v>
       </c>
       <c r="L83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E89" s="3">
         <v>88400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>90700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>122600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>80400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>61300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>69800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>99700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-124200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4864,22 +5098,22 @@
         <v>-26600</v>
       </c>
       <c r="G96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-26800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-23400</v>
       </c>
       <c r="M96" s="3">
         <v>-23400</v>
@@ -4888,22 +5122,25 @@
         <v>-23400</v>
       </c>
       <c r="O96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-22900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-195800</v>
+      </c>
+      <c r="E100" s="3">
         <v>59300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>61300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-61500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E102" s="3">
         <v>115400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-112600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>679100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>636600</v>
+      </c>
+      <c r="F8" s="3">
         <v>617400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>629700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>662000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>672700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>727000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>712800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>703700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>701400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>724700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>664700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>644800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>660100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>608200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>550600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>553000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>453800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>413900</v>
+      </c>
+      <c r="F9" s="3">
         <v>409500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>420500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>438800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>441400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>483200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>472100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>478300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>463000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>471700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>460400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>445800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>420500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>430600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>396700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>362700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>358800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>222700</v>
+      </c>
+      <c r="F10" s="3">
         <v>207900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>209200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>223200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>231300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>243800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>240700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>225400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>238400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>253000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>239600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>218900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>224300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>229500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>211500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>187900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>194200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>549400</v>
+      </c>
+      <c r="F17" s="3">
         <v>534900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>545200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>577500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>584000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>622600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>612800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>618600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>602700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>620900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>599100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>583100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>554100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>565800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>519700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>481200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>476600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F18" s="3">
         <v>82500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>84500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>84500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>88700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>104400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>85100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>98700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>103800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>81600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>90700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>94300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>88500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>69400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>76400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1379,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>8100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F21" s="3">
         <v>108200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>110600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>108900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>112500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>125300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>125300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>105700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>119900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>128400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>123900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>108800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>116200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>107600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>89500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>103400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5200</v>
       </c>
       <c r="P22" s="3">
         <v>5100</v>
       </c>
       <c r="Q22" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="R22" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="S22" s="3">
         <v>4800</v>
       </c>
       <c r="T22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>82200</v>
+      </c>
+      <c r="F23" s="3">
         <v>81300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>84400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>82800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>86600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>98800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>99500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>80500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>96400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>103500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>99000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>76400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>84700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>91700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>84300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>66300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>79700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F24" s="3">
         <v>17200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>21600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>21600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>24300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>27100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>28700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>119000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>23800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>23500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>19800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F26" s="3">
         <v>64100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>63400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>64400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>65000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>77200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>75200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>60500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>72900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>76400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>70300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-42600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>68200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>60100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>46500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>58000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F27" s="3">
         <v>64100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>63400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>64400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>65000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>77200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>75200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>60500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>72900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>76400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>70300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-42600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>68200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>60100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>46500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>58000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1834,32 +1956,32 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-19100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>26000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-8100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F33" s="3">
         <v>64100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>63400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>64400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>58100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>75200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>60100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>73800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>102400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>69900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-52900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>60900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>68200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>60100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>46500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>58000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F35" s="3">
         <v>64100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>63400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>64400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>58100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>75200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>60100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>73800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>102400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>69900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-52900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>60900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>68200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>60100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>46500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>58000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>270000</v>
+      </c>
+      <c r="F41" s="3">
         <v>236600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>326500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>211100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>210000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>177800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>203800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>191200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>199900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>204700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>317300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>362200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>349600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>308400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>295900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>296300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>262200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2606,262 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>465100</v>
+      </c>
+      <c r="F43" s="3">
         <v>455300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>460500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>475800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>501500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>529500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>534300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>515300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>542400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>534600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>530600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>509900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>483000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>497700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>459200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>408400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>415000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>329500</v>
+      </c>
+      <c r="F44" s="3">
         <v>322700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>346500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>350100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>361500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>332800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>359500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>365600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>360500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>334100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>344200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>344900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>319600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>293500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>272800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>260400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>249200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F45" s="3">
         <v>82100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>87000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>84200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>86100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>82500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>76000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>85600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>67600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>52300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>57100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>62900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>52100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>56100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>60100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>66600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1126300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1143600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1096700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1220500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1121200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1159100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1122600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1173600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1157700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1170400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1125700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1249200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1279900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1204300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1151000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1084000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1025200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>993000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2916,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>624300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>617100</v>
+      </c>
+      <c r="F48" s="3">
         <v>705300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>685700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>699100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>685500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>588900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>569800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>552500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>517900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>509300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>511100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>507700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>483800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>484600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>462500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>459700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>466100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>387400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>379800</v>
+      </c>
+      <c r="F49" s="3">
         <v>384100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>369100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>378200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>379100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>374000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>383700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>388000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>386700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>274000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>277100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>280200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>277400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>278700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>268100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>268800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>270500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>128900</v>
+      </c>
+      <c r="F52" s="3">
         <v>58500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>63200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>63700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>59600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>57100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>78800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>68100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>69000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>67600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>57600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>63500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>66900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>65700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>64000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>64500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2271100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2269400</v>
+      </c>
+      <c r="F54" s="3">
         <v>2244600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2338500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2262200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2283300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2142600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2205900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2166300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2144000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1976600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2095000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2131300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2032400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1979700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1880300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1817700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1794100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3402,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>209400</v>
+      </c>
+      <c r="F57" s="3">
         <v>187700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>202700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>210100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>229100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>237500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>238700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>226700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>230600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>201300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>201500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>190600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>194000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>179000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>157800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>160700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F58" s="3">
         <v>9500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>58100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>84700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>110900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>52300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>50600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>66000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>74000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>43500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>18100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>39200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>73900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>306900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>277100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>245000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>203300</v>
+      </c>
+      <c r="F59" s="3">
         <v>209600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>172000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>203400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>191100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>193100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>157100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>183000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>224600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>191700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>216900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>185300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>216200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>169000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>180600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>157700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>499500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>419400</v>
+      </c>
+      <c r="F60" s="3">
         <v>406800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>432800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>498200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>531100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>482900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>446400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>493100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>487600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>469400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>397700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>435000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>415100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>484100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>654900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>615500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>563400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>495100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>576300</v>
+      </c>
+      <c r="F61" s="3">
         <v>617400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>735100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>595800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>596800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>584400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>644400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>632500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>630600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>499600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>687500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>667700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>631700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>537300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>298100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>297800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>324700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>210200</v>
+      </c>
+      <c r="F62" s="3">
         <v>216600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>215800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>217000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>227700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>172600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>157300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>155000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>158500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>149800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>173400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>201700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>104600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>103800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>125300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>123700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>121300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1196700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1222600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1257500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1399700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1327400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1371700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1255300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1266200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1298900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1294400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1123600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1263300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1309000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1156100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1129600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1082600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1041200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1013500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1507600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1504900</v>
+      </c>
+      <c r="F72" s="3">
         <v>1445900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1432800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1368600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1361100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1303200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1298300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1223800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1213800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1143400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1089100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1016400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1120200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1056900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1035900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>977300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>977500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="F76" s="3">
         <v>987100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>938800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>934800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>911600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>887300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>939700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>867400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>849600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>853000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>831700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>822300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>876300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>850100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>797700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>776500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>780600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F81" s="3">
         <v>64100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>63400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>64400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>58100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>75200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>60100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>73800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>102400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>69900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-52900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>60900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>68200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>60100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>46500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>58000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F83" s="3">
         <v>23000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>21200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>20600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>19900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>18900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>18500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>18400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>18900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>128900</v>
+      </c>
+      <c r="F89" s="3">
         <v>121800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>88400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>90700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>86100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>122600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>80400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>79500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>63300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>104200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>48900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>45900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>63900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>61300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>69800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>99700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-26500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-42600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-38300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-45300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-38900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-28200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-32400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-37600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-12400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-26500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-42600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-37100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-38000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-45300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-38900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-124200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-27300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-25900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-23300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5549,15 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26600</v>
+        <v>-26500</v>
       </c>
       <c r="E96" s="3">
         <v>-26600</v>
@@ -5101,46 +5569,52 @@
         <v>-26600</v>
       </c>
       <c r="H96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-26800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-24200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-24300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-24400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-23400</v>
       </c>
       <c r="O96" s="3">
         <v>-23400</v>
       </c>
       <c r="P96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-23100</v>
       </c>
       <c r="S96" s="3">
         <v>-23200</v>
       </c>
       <c r="T96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="V96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-195800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>59300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-48300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-14700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-109600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-19700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-55300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>61300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-184700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-61500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-20700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-46200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-16300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-55200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>6800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>13300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-89900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>115400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>32200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-112600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-44900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>12600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>41200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>34100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E8" s="3">
         <v>679100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>636600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>617400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>629700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>662000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>672700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>727000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>712800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>703700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>701400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>724700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>664700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>644800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>660100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>608200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>550600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>553000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>453800</v>
+        <v>507000</v>
       </c>
       <c r="E9" s="3">
+        <v>448000</v>
+      </c>
+      <c r="F9" s="3">
         <v>413900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>409500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>420500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>438800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>441400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>483200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>472100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>478300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>463000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>471700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>460400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>445800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>420500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>430600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>396700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>362700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>358800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225300</v>
+        <v>258000</v>
       </c>
       <c r="E10" s="3">
+        <v>231100</v>
+      </c>
+      <c r="F10" s="3">
         <v>222700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>207900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>209200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>223200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>231300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>243800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>238400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>253000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>239600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>224300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>229500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>211500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>187900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>194200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>14800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>655600</v>
+      </c>
+      <c r="E17" s="3">
         <v>603000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>549400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>534900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>545200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>577500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>584000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>622600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>612800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>618600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>602700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>620900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>599100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>583100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>554100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>565800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>519700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>481200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>476600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E18" s="3">
         <v>76100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>87200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>82500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>84500</v>
       </c>
       <c r="H18" s="3">
         <v>84500</v>
       </c>
       <c r="I18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="J18" s="3">
         <v>88700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>104400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>98700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,182 +1413,189 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E21" s="3">
         <v>100500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>109000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>108900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>125300</v>
       </c>
       <c r="K21" s="3">
         <v>125300</v>
       </c>
       <c r="L21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="M21" s="3">
         <v>105700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>119900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>123900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>116200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>107600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>89500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5200</v>
       </c>
       <c r="K22" s="3">
         <v>5200</v>
       </c>
       <c r="L22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4800</v>
       </c>
       <c r="T22" s="3">
         <v>4800</v>
@@ -1565,134 +1604,143 @@
         <v>4800</v>
       </c>
       <c r="V22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E23" s="3">
         <v>73900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>81300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>84400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>82800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>99000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>76400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>91700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>79700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E24" s="3">
         <v>17700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>21600</v>
       </c>
       <c r="J24" s="3">
         <v>21600</v>
       </c>
       <c r="K24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="L24" s="3">
         <v>24300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>119000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E26" s="3">
         <v>56200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>61900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>64100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>65000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E27" s="3">
         <v>56200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>64100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>63400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>64400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>65000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>58000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1962,29 +2022,29 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-19100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>26000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E33" s="3">
         <v>56200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>61900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>64100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>63400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>64400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>65000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>58100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>73800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>102400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>58000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E35" s="3">
         <v>56200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>61900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>64100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>63400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>64400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>65000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>58100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>73800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>102400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>58000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>215300</v>
+      </c>
+      <c r="E41" s="3">
         <v>207300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>236600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>326500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>211100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>210000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>203800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>191200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>199900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>204700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>317300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>362200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>349600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>308400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>295900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>296300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>262200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,279 +2701,294 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>492900</v>
+        <v>553800</v>
       </c>
       <c r="E43" s="3">
-        <v>465100</v>
+        <v>504300</v>
       </c>
       <c r="F43" s="3">
+        <v>476900</v>
+      </c>
+      <c r="G43" s="3">
         <v>455300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>460500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>475800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>501500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>529500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>534300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>515300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>542400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>534600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>530600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>509900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>483000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>497700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>459200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>408400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>415000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>360100</v>
+      </c>
+      <c r="E44" s="3">
         <v>347600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>329500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>322700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>346500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>350100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>361500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>332800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>359500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>365600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>360500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>334100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>344200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>344900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>319600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>293500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>272800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>260400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>249200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78500</v>
+        <v>69500</v>
       </c>
       <c r="E45" s="3">
-        <v>79000</v>
+        <v>67100</v>
       </c>
       <c r="F45" s="3">
+        <v>67200</v>
+      </c>
+      <c r="G45" s="3">
         <v>82100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>87000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1126300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1143600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1096700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1220500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1121200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1159100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1122600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1173600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1157700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1170400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1125700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1249200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1279900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1204300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1151000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1084000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1025200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>993000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>24200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>22300</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>626300</v>
+      </c>
+      <c r="E48" s="3">
         <v>624300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>617100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>705300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>685700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>699100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>685500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>588900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>569800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>552500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>517900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>509300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>511100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>507700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>483800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>484600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>462500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>459700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>466100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E49" s="3">
         <v>387400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>379800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>384100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>369100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>378200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>379100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>374000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>383700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>388000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>386700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>274000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>277100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>280200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>277400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>268100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>268800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>270500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133100</v>
+        <v>118900</v>
       </c>
       <c r="E52" s="3">
-        <v>128900</v>
+        <v>109800</v>
       </c>
       <c r="F52" s="3">
+        <v>106600</v>
+      </c>
+      <c r="G52" s="3">
         <v>58500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>64000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>64500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2354600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2271100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2269400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2244600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2338500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2262200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2283300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2142600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2205900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2166300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2144000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1976600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2095000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2131300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2032400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1979700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1880300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1817700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1794100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E57" s="3">
         <v>228100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>209400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>187700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>202700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>210100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>237500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>238700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>226700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>230600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>201300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>201500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>190600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>194000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>179000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>157800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>160700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E58" s="3">
         <v>22400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>84700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>110900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>52300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>74000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>73900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>306900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>277100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>245000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E59" s="3">
         <v>249000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>209600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>172000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>203400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>191100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>193100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>157100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>224600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>191700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>216900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>185300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>216200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>180600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>157700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>548800</v>
+      </c>
+      <c r="E60" s="3">
         <v>499500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>419400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>406800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>432800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>498200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>531100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>482900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>446400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>493100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>487600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>469400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>397700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>435000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>415100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>484100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>654900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>615500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>563400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E61" s="3">
         <v>495100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>576300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>617400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>735100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>595800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>596800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>584400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>644400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>632500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>630600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>499600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>687500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>667700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>631700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>537300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>298100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>297800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>324700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E62" s="3">
         <v>202100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>210200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>216600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>215800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>217000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>227700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>172600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>157300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>155000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>158500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>149800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>201700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>104600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>125300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>123700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>121300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1196700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1222600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1257500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1399700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1327400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1371700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1255300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1266200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1298900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1294400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1123600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1263300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1309000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1156100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1129600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1082600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1041200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1013500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1591200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1507600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1504900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1445900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1432800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1368600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1361100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1303200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1298300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1223800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1213800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1143400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1089100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1016400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1120200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1056900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1035900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>977300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>977500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1074400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1046800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>987100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>938800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>934800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>911600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>887300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>939700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>867400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>849600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>853000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>831700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>822300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>876300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>850100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>797700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>776500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>780600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E81" s="3">
         <v>56200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>61900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>64100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>63400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>64400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>65000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>58100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>73800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>102400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>58000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="E83" s="3">
         <v>23300</v>
       </c>
       <c r="F83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G83" s="3">
         <v>23000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>19300</v>
       </c>
       <c r="N83" s="3">
         <v>19300</v>
       </c>
       <c r="O83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="P83" s="3">
         <v>19500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E89" s="3">
         <v>73400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>128900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>90700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>122600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>80400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>61300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>69800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>99700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-26600</v>
       </c>
       <c r="F96" s="3">
         <v>-26600</v>
@@ -5575,22 +5808,22 @@
         <v>-26600</v>
       </c>
       <c r="J96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-23400</v>
       </c>
       <c r="P96" s="3">
         <v>-23400</v>
@@ -5599,22 +5832,25 @@
         <v>-23400</v>
       </c>
       <c r="R96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-22900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-131700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-78900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-195800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>59300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-184700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-40000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>7200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>115400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-112600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>41200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>773100</v>
+      </c>
+      <c r="E8" s="3">
         <v>765000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>679100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>636600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>617400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>629700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>662000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>672700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>727000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>712800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>703700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>701400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>724700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>664700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>644800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>660100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>608200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>550600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>553000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>507400</v>
+      </c>
+      <c r="E9" s="3">
         <v>507000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>448000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>413900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>409500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>420500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>438800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>441400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>483200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>472100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>478300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>463000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>471700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>460400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>445800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>420500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>430600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>396700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>362700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>358800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E10" s="3">
         <v>258000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>231100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>222700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>207900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>209200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>223200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>231300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>243800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>240700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>225400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>238400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>253000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>239600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>218900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>224300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>229500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>211500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>187900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>194200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1133,8 +1153,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>661100</v>
+      </c>
+      <c r="E17" s="3">
         <v>655600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>603000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>549400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>534900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>545200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>577500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>584000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>622600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>612800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>618600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>602700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>620900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>599100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>583100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>554100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>565800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>519700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>481200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>476600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E18" s="3">
         <v>109400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>87200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>82500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>84500</v>
       </c>
       <c r="I18" s="3">
         <v>84500</v>
       </c>
       <c r="J18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="K18" s="3">
         <v>88700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>94300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>69400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,191 +1447,198 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E21" s="3">
         <v>137900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>109000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>108200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>110600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>108900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>112500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>125300</v>
       </c>
       <c r="L21" s="3">
         <v>125300</v>
       </c>
       <c r="M21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="N21" s="3">
         <v>105700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>119900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>123900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>116200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>107600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>89500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>103400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5200</v>
       </c>
       <c r="L22" s="3">
         <v>5200</v>
       </c>
       <c r="M22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>4800</v>
       </c>
       <c r="U22" s="3">
         <v>4800</v>
@@ -1607,140 +1647,149 @@
         <v>4800</v>
       </c>
       <c r="W22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E23" s="3">
         <v>110900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>73900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>81300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>86600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>76400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>91700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>79700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E24" s="3">
         <v>26500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>21600</v>
       </c>
       <c r="K24" s="3">
         <v>21600</v>
       </c>
       <c r="L24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="M24" s="3">
         <v>24300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>119000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E26" s="3">
         <v>84400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>61900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>63400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>64400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>58000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E27" s="3">
         <v>84400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>64100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>63400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>64400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-42600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>58000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,29 +2086,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-19100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>26000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E33" s="3">
         <v>84400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>61900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>64100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>63400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>64400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>73800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>102400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>58000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E35" s="3">
         <v>84400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>61900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>64100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>63400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>64400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>73800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>102400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>58000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E41" s="3">
         <v>215300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>236600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>326500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>211100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>210000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>203800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>191200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>199900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>204700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>317300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>362200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>349600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>308400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>295900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>296300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>262200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>567600</v>
+      </c>
+      <c r="E43" s="3">
         <v>553800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>504300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>476900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>455300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>460500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>475800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>501500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>529500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>534300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>515300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>542400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>534600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>530600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>509900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>483000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>497700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>459200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>408400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>415000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>384500</v>
+      </c>
+      <c r="E44" s="3">
         <v>360100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>347600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>329500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>322700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>346500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>350100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>361500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>332800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>359500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>365600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>360500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>334100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>344200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>344900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>319600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>293500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>272800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>260400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>249200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E45" s="3">
         <v>69500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>67100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>67200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>86100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>85600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>67600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>56100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1198700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1126300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1143600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1096700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1220500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1121200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1159100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1122600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1173600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1157700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1170400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1125700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1249200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1279900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1204300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1151000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1084000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1025200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>993000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,13 +3078,13 @@
         <v>24200</v>
       </c>
       <c r="E47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F47" s="3">
         <v>23300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>617800</v>
+      </c>
+      <c r="E48" s="3">
         <v>626300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>624300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>617100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>705300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>685700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>699100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>685500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>588900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>569800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>552500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>517900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>509300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>511100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>507700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>483800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>484600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>462500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>459700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>466100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E49" s="3">
         <v>386500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>387400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>379800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>384100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>369100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>378200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>379100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>374000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>383700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>388000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>386700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>274000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>277100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>280200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>277400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>278700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>268100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>268800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>270500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E52" s="3">
         <v>118900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>109800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>57600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>66900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>64000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>64500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2354600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2271100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2269400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2244600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2338500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2262200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2283300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2142600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2205900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2166300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2144000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1976600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2095000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2131300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2032400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1979700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1880300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1817700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1794100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E57" s="3">
         <v>268100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>228100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>209400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>187700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>202700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>210100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>229100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>226700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>230600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>201300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>201500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>190600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>194000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>179000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>157800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>160700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E58" s="3">
         <v>44500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>84700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>110900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>52300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>66000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>74000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>73900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>306900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>277100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>245000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E59" s="3">
         <v>236200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>249000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>209600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>172000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>191100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>193100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>157100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>191700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>216900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>185300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>216200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>169000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>180600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>157700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>606600</v>
+      </c>
+      <c r="E60" s="3">
         <v>548800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>499500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>419400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>406800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>432800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>498200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>531100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>482900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>446400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>493100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>487600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>469400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>397700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>435000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>415100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>484100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>654900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>615500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>563400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E61" s="3">
         <v>454600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>495100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>576300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>617400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>735100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>595800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>596800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>584400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>644400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>632500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>630600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>499600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>687500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>667700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>631700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>537300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>298100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>297800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>324700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E62" s="3">
         <v>197800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>202100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>210200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>216600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>215800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>217000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>227700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>157300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>155000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>158500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>149800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>201700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>104600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>125300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>123700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>121300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1201200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1196700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1222600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1257500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1399700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1327400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1371700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1255300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1266200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1298900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1294400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1123600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1263300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1309000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1156100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1129600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1082600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1041200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1013500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1621200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1591200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1507600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1504900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1445900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1432800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1368600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1361100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1303200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1298300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1223800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1213800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1143400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1089100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1016400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1120200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1056900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1035900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>977300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>977500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1137100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1153400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1074400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1046800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>987100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>938800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>934800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>911600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>887300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>939700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>867400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>849600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>853000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>831700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>822300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>876300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>850100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>797700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>776500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>780600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E81" s="3">
         <v>84400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>61900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>64100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>63400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>64400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>73800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>102400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>58000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E83" s="3">
         <v>23800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>23300</v>
       </c>
       <c r="F83" s="3">
         <v>23300</v>
       </c>
       <c r="G83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H83" s="3">
         <v>23000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>19300</v>
       </c>
       <c r="O83" s="3">
         <v>19300</v>
       </c>
       <c r="P83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>19500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E89" s="3">
         <v>103300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>73400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>128900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>90700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>122600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>80400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>61300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>69800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>99700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,19 +6017,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-26600</v>
       </c>
       <c r="G96" s="3">
         <v>-26600</v>
@@ -5811,22 +6045,22 @@
         <v>-26600</v>
       </c>
       <c r="K96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-26800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-23400</v>
       </c>
       <c r="Q96" s="3">
         <v>-23400</v>
@@ -5835,22 +6069,25 @@
         <v>-23400</v>
       </c>
       <c r="S96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-84900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-131700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-78900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-195800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>59300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-184700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-40000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>115400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-112600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>41200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>802500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>760900</v>
+      </c>
+      <c r="F8" s="3">
         <v>773100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>765000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>679100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>636600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>617400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>629700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>662000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>672700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>727000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>712800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>703700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>701400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>724700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>700000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>664700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>644800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>660100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>608200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>550600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>553000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>552700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>501400</v>
+      </c>
+      <c r="F9" s="3">
         <v>507400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>507000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>448000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>413900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>409500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>420500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>438800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>441400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>483200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>472100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>478300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>463000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>471700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>460400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>445800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>420500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>430600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>396700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>362700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>358800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>259500</v>
+      </c>
+      <c r="F10" s="3">
         <v>265700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>258000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>231100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>222700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>207900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>209200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>223200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>231300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>243800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>240700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>225400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>238400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>253000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>239600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>218900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>224300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>229500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>211500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>187900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>194200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1161,31 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E14" s="3">
+        <v>2500</v>
+      </c>
       <c r="F14" s="3">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>14800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1156,11 +1196,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>706800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>653400</v>
+      </c>
+      <c r="F17" s="3">
         <v>661100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>655600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>603000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>549400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>534900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>545200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>577500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>584000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>622600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>612800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>618600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>602700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>620900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>599100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>583100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>554100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>565800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>519700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>481200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>476600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>107500</v>
+      </c>
+      <c r="F18" s="3">
         <v>112000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>109400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>76100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>87200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>82500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>84500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>84500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>88700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>104400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>85100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>98700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>103800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>81600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>90700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>94300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>88500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>69400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>76400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1514,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>8100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>131300</v>
+      </c>
+      <c r="F21" s="3">
         <v>142000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>137900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>109000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>108200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>110600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>108900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>112500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>125300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>125300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>105700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>119900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>128400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>123900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>108800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>116200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>107600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>89500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>103400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5200</v>
       </c>
       <c r="T22" s="3">
         <v>5100</v>
       </c>
       <c r="U22" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="V22" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="W22" s="3">
         <v>4800</v>
       </c>
       <c r="X22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>104100</v>
+      </c>
+      <c r="F23" s="3">
         <v>114000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>110900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>73900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>82200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>81300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>84400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>82800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>86600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>98800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>99500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>80500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>96400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>103500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>99000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>76400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>84700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>91700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>84300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>66300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>79700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F24" s="3">
         <v>29700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>26500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>17700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>20300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>17200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>24300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>28700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>119000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>23500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>24200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>19800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F26" s="3">
         <v>84300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>84400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>56200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>61900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>64100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>63400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>64400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>65000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>77200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>75200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>60500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>72900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>76400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>70300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-42600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>60900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>68200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>60100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>46500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>58000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F27" s="3">
         <v>84300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>84400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>56200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>61900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>64100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>63400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>64400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>77200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>75200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>60500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>72900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>70300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-42600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>60900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>68200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>60100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>46500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>58000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,32 +2211,32 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-19100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>26000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-8100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F33" s="3">
         <v>84300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>84400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>56200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>61900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>64100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>63400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>64400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>58100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>75200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>60100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>73800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>102400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>69900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-52900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>60900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>68200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>60100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>46500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>58000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F35" s="3">
         <v>84300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>84400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>56200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>61900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>64100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>63400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>64400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>58100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>75200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>60100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>73800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>102400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>69900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-52900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>60900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>68200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>60100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>46500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>58000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2833,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200800</v>
+      </c>
+      <c r="F41" s="3">
         <v>222800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>215300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>207300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>270000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>236600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>326500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>211100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>210000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>177800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>203800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>191200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>199900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>204700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>317300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>362200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>349600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>308400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>295900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>296300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>262200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,300 +2977,330 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>570900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>563400</v>
+      </c>
+      <c r="F43" s="3">
         <v>567600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>553800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>504300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>476900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>455300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>460500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>475800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>501500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>529500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>534300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>515300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>542400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>534600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>530600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>509900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>483000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>497700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>459200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>408400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>415000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>444700</v>
+      </c>
+      <c r="F44" s="3">
         <v>384500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>360100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>347600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>329500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>322700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>346500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>350100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>361500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>332800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>359500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>365600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>360500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>334100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>344200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>344900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>319600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>293500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>272800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>260400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>249200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F45" s="3">
         <v>69100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>69500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>67100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>67200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>82100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>87000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>84200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>86100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>82500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>76000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>85600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>67600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>52300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>57100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>62900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>52100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>51400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>56100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>60100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>66600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1314200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1244000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1198700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1126300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1143600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1096700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1220500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1121200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1159100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1122600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1173600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1157700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1170400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1125700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1249200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1279900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1204300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1151000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1084000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1025200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>993000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F47" s="3">
         <v>24200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>24200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>22300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3098,11 +3308,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3137,144 +3347,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>609700</v>
+      </c>
+      <c r="F48" s="3">
         <v>617800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>626300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>624300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>617100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>705300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>685700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>699100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>685500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>588900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>569800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>552500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>517900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>509300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>511100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>507700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>483800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>484600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>462500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>459700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>466100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>423700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>379800</v>
+      </c>
+      <c r="F49" s="3">
         <v>384100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>386500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>387400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>379800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>384100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>369100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>378200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>379100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>374000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>383700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>388000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>386700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>274000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>277100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>280200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>277400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>278700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>268100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>268800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>270500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>129300</v>
+      </c>
+      <c r="F52" s="3">
         <v>130100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>118900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>109800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>106600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>58500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>63200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>63700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>57100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>78800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>68100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>69000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>67600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>57600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>63500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>66900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>65400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>65700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>64000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>64500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2491300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2438500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2400200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2354600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2271100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2269400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2244600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2338500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2262200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2283300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2142600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2205900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2166300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2144000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1976600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2095000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2131300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2032400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1979700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1880300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1817700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1794100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3925,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>324500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F57" s="3">
         <v>293900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>268100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>228100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>209400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>187700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>202700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>210100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>229100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>237500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>238700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>226700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>230600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>201300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>201500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>190600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>194000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>179000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>157800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>160700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F58" s="3">
         <v>48500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>44500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>22400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>58100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>84700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>110900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>52300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>50600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>66000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>74000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>43500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>18100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>39200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>73900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>306900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>277100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>245000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>230700</v>
+      </c>
+      <c r="F59" s="3">
         <v>264200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>236200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>249000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>203300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>209600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>172000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>203400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>191100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>193100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>157100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>183000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>224600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>191700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>216900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>185300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>216200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>169000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>180600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>157700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>638500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>581900</v>
+      </c>
+      <c r="F60" s="3">
         <v>606600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>548800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>499500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>419400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>406800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>432800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>498200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>531100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>482900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>446400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>493100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>487600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>469400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>397700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>435000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>415100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>484100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>654900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>615500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>563400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>553900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>548100</v>
+      </c>
+      <c r="F61" s="3">
         <v>461000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>454600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>495100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>576300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>617400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>735100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>595800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>596800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>584400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>644400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>632500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>630600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>499600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>687500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>667700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>631700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>537300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>298100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>297800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>324700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F62" s="3">
         <v>195500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>197800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>202100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>210200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>216600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>215800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>217000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>227700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>172600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>157300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>155000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>158500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>149800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>173400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>201700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>104600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>103800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>125300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>123700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>121300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1374500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1322600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1263100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1201200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1196700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1222600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1257500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1399700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1327400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1371700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1255300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1266200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1298900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1294400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1123600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1263300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1309000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1156100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1129600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1082600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1041200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1013500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1700400</v>
+      </c>
+      <c r="F72" s="3">
         <v>1621200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1591200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1507600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1504900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1445900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1432800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1368600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1361100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1303200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1298300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1223800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1213800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1143400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1089100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1016400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1120200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1056900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1035900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>977300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>977500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1116800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1137100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1153400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1074400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1046800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>987100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>938800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>934800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>911600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>887300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>939700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>867400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>849600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>853000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>831700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>822300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>876300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>850100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>797700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>776500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>780600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F81" s="3">
         <v>84300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>84400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>56200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>61900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>64100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>63400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>64400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>58100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>75200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>60100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>73800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>102400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>69900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-52900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>60900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>68200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>60100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>46500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>58000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="E83" s="3">
         <v>23800</v>
       </c>
       <c r="F83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H83" s="3">
         <v>23300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>23300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>23000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>19300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>19500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>18900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>18500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>18400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>18900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F89" s="3">
         <v>96300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>103300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>73400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>128900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>121800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>88400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>90700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>86100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>122600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>80400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>79500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>63300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>104200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>48900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>45900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>63900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>87000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>61300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>69800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>99700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-18200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-42600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-38300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-45300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-38900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-28200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-27300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-25900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-19900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-24700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-32400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-12400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-26500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-42600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-37100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-45300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-38900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-124200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-27300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-25900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-19100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-43600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-12600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-23300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,25 +6484,27 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-26400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-26600</v>
       </c>
       <c r="I96" s="3">
         <v>-26600</v>
@@ -6048,46 +6516,52 @@
         <v>-26600</v>
       </c>
       <c r="L96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-26800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-24200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-24300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-24400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-23400</v>
       </c>
       <c r="S96" s="3">
         <v>-23400</v>
       </c>
       <c r="T96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-22900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-23100</v>
       </c>
       <c r="W96" s="3">
         <v>-23200</v>
       </c>
       <c r="X96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-67800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-84900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-131700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-78900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-195800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>59300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-48300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-109600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-55300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>61300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-184700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-61500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-20700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-40000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-46200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-16300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-55200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6367,131 +6865,143 @@
         <v>-2900</v>
       </c>
       <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>7200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>6800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>13300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>9900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-62700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>33400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-89900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>115400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>32200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-112600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-44900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>12600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>41200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>12500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>34100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>853200</v>
+      </c>
+      <c r="E8" s="3">
         <v>802500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>760900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>773100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>765000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>679100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>636600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>617400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>629700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>662000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>672700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>727000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>712800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>703700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>701400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>724700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>664700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>644800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>660100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>608200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>550600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>553000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>584200</v>
+      </c>
+      <c r="E9" s="3">
         <v>552700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>501400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>507400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>507000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>448000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>413900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>409500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>420500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>438800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>441400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>483200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>472100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>478300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>463000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>471700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>460400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>445800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>420500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>430600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>396700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>362700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>358800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E10" s="3">
         <v>249800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>259500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>265700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>258000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>231100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>222700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>207900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>223200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>231300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>243800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>240700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>225400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>238400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>253000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>239600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>224300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>229500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>211500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>187900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>194200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,28 +1183,31 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1202,8 +1221,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>742200</v>
+      </c>
+      <c r="E17" s="3">
         <v>706800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>653400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>661100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>655600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>603000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>549400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>534900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>545200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>577500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>584000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>622600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>612800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>618600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>602700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>620900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>599100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>583100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>554100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>565800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>519700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>481200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>476600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E18" s="3">
         <v>95700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>109400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>87200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>82500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>84500</v>
       </c>
       <c r="L18" s="3">
         <v>84500</v>
       </c>
       <c r="M18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="N18" s="3">
         <v>88700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>98700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>94300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>88500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>69400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,218 +1548,225 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E21" s="3">
         <v>121800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>131300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>137900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>108200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>108900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>125300</v>
       </c>
       <c r="O21" s="3">
         <v>125300</v>
       </c>
       <c r="P21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>105700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>123900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>116200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>107600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>89500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>103400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5200</v>
       </c>
       <c r="O22" s="3">
         <v>5200</v>
       </c>
       <c r="P22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>4800</v>
       </c>
       <c r="X22" s="3">
         <v>4800</v>
@@ -1736,158 +1775,167 @@
         <v>4800</v>
       </c>
       <c r="Z22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E23" s="3">
         <v>94500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>114000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>110900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>73900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>81300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>99500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>99000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>76400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>91700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>84300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>79700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E24" s="3">
         <v>22700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>21600</v>
       </c>
       <c r="N24" s="3">
         <v>21600</v>
       </c>
       <c r="O24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="P24" s="3">
         <v>24300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>119000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E26" s="3">
         <v>71800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>84300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>84400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>61900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>72900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>70300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-42600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>58000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E27" s="3">
         <v>71800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>84300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>84400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>64100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>70300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-42600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>58000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,29 +2277,29 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-19100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>26000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="3">
         <v>71800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>84300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>84400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>73800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>102400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>46500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>58000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E35" s="3">
         <v>71800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>84300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>84400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>73800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>102400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>46500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>58000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E41" s="3">
         <v>170400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>215300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>207300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>236600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>326500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>211100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>210000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>203800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>191200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>199900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>204700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>317300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>362200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>349600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>308400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>295900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>296300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>262200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,327 +3072,342 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>604200</v>
+      </c>
+      <c r="E43" s="3">
         <v>570900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>563400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>567600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>553800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>504300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>476900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>455300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>460500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>475800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>501500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>529500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>534300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>515300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>542400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>534600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>530600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>509900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>483000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>497700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>459200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>408400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>415000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>510700</v>
+      </c>
+      <c r="E44" s="3">
         <v>480700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>444700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>384500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>360100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>347600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>329500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>322700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>346500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>350100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>361500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>332800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>359500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>365600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>360500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>334100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>344200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>344900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>319600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>293500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>272800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>260400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>249200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E45" s="3">
         <v>92200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>67200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>87000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>86100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>85600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>67600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>56100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>60100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>66600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1367300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1314200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1295800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1244000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1198700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1126300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1143600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1096700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1220500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1121200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1159100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1122600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1173600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1157700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1170400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1125700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1249200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1279900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1204300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1151000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1084000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1025200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>993000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E47" s="3">
         <v>23700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>24200</v>
       </c>
       <c r="G47" s="3">
         <v>24200</v>
       </c>
       <c r="H47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I47" s="3">
         <v>23300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3314,8 +3418,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3353,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>591100</v>
+      </c>
+      <c r="E48" s="3">
         <v>601000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>609700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>617800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>626300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>624300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>617100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>705300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>685700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>699100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>685500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>588900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>569800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>552500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>517900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>509300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>511100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>507700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>483800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>484600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>462500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>459700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>466100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>410400</v>
+      </c>
+      <c r="E49" s="3">
         <v>423700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>379800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>384100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>386500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>387400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>379800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>384100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>369100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>378200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>379100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>374000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>383700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>388000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>386700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>274000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>277100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>280200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>277400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>278700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>268100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>268800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>270500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E52" s="3">
         <v>128700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>129300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>130100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>118900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>109800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>57600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>66900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>64000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>64500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2519200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2491300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2438500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2354600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2271100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2269400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2244600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2338500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2262200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2283300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2142600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2205900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2166300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2144000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1976600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2095000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2131300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2032400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1979700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1880300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1817700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1794100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E57" s="3">
         <v>324500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>310000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>293900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>268100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>228100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>209400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>187700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>210100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>229100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>237500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>226700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>230600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>201300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>201500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>190600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>194000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>179000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>157800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>160700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E58" s="3">
         <v>63900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>84700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>110900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>74000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>73900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>306900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>277100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>245000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E59" s="3">
         <v>250100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>230700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>236200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>249000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>209600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>172000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>193100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>157100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>224600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>191700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>216900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>185300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>216200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>180600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>157700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>606500</v>
+      </c>
+      <c r="E60" s="3">
         <v>638500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>581900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>606600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>548800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>499500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>419400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>406800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>432800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>498200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>531100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>482900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>446400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>487600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>469400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>397700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>435000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>415100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>484100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>654900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>615500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>563400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>607200</v>
+      </c>
+      <c r="E61" s="3">
         <v>553900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>548100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>461000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>454600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>495100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>576300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>617400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>735100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>595800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>596800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>584400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>644400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>632500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>630600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>499600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>687500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>667700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>631700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>537300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>298100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>297800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>324700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>181900</v>
+      </c>
+      <c r="E62" s="3">
         <v>182100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>192600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>195500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>202100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>210200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>216600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>215800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>217000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>227700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>157300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>155000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>158500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>149800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>201700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>104600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>103800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>125300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>123700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>121300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1395600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1374500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1322600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1263100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1201200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1196700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1222600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1257500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1399700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1327400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1371700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1255300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1266200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1298900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1294400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1123600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1263300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1309000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1156100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1129600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1082600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1041200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1013500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1802600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1718000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1700400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1621200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1591200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1507600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1504900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1445900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1432800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1368600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1361100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1303200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1298300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1223800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1213800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1143400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1089100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1016400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1120200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1056900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1035900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>977300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>977500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1123600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1116800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1115900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1137100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1153400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1074400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1046800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>987100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>938800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>934800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>911600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>887300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>939700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>867400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>849600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>853000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>831700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>822300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>876300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>850100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>797700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>776500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>780600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E81" s="3">
         <v>71800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>84300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>84400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>73800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>102400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>46500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>58000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E83" s="3">
         <v>23700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>23300</v>
       </c>
       <c r="I83" s="3">
         <v>23300</v>
       </c>
       <c r="J83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K83" s="3">
         <v>23000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>19300</v>
       </c>
       <c r="R83" s="3">
         <v>19300</v>
       </c>
       <c r="S83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="T83" s="3">
         <v>19500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E89" s="3">
         <v>36900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>103300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>73400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>128900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>90700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>122600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>80400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>104200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>45900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>61300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>69800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>99700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-124200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-23300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6495,19 +6728,19 @@
         <v>-27200</v>
       </c>
       <c r="E96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-26600</v>
       </c>
       <c r="J96" s="3">
         <v>-26600</v>
@@ -6522,22 +6755,22 @@
         <v>-26600</v>
       </c>
       <c r="N96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-26800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-23400</v>
       </c>
       <c r="T96" s="3">
         <v>-23400</v>
@@ -6546,22 +6779,25 @@
         <v>-23400</v>
       </c>
       <c r="V96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-84900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-131700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-78900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-195800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>59300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-184700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-61500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-40000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-46200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-112600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-44900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>41200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>34100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E8" s="3">
         <v>853200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>802500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>760900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>773100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>765000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>679100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>636600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>617400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>629700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>662000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>672700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>727000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>712800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>703700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>701400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>724700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>664700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>644800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>660100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>608200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>550600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>553000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>598400</v>
+      </c>
+      <c r="E9" s="3">
         <v>584200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>552700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>501400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>507400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>507000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>448000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>413900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>409500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>420500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>438800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>441400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>483200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>472100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>478300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>463000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>471700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>460400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>445800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>420500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>430600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>396700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>362700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>358800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E10" s="3">
         <v>269000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>249800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>259500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>265700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>258000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>231100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>222700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>207900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>223200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>231300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>243800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>240700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>225400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>238400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>253000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>239600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>218900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>224300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>229500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>211500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>187900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>194200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,20 +1217,20 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1224,8 +1244,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>760700</v>
+      </c>
+      <c r="E17" s="3">
         <v>742200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>706800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>653400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>661100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>655600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>603000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>549400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>534900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>545200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>577500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>584000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>622600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>612800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>618600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>602700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>620900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>599100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>583100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>554100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>565800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>519700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>481200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>476600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E18" s="3">
         <v>111000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>109400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>87200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>84500</v>
       </c>
       <c r="M18" s="3">
         <v>84500</v>
       </c>
       <c r="N18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="O18" s="3">
         <v>88700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>94300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>88500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>69400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>76400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,227 +1582,234 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E21" s="3">
         <v>138600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>131300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>137900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>108200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>125300</v>
       </c>
       <c r="P21" s="3">
         <v>125300</v>
       </c>
       <c r="Q21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="R21" s="3">
         <v>105700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>119900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>128400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>123900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>116200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>107600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>89500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>103400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5200</v>
       </c>
       <c r="P22" s="3">
         <v>5200</v>
       </c>
       <c r="Q22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>4800</v>
       </c>
       <c r="Y22" s="3">
         <v>4800</v>
@@ -1778,164 +1818,173 @@
         <v>4800</v>
       </c>
       <c r="AA22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AB22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E23" s="3">
         <v>111300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>94500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>114000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>110900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>86600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>80500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>96400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>99000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>91700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>84300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>66300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>79700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E24" s="3">
         <v>28300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>21600</v>
       </c>
       <c r="O24" s="3">
         <v>21600</v>
       </c>
       <c r="P24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>24300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>119000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E26" s="3">
         <v>83000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>84300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>84400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>61900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>75200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>72900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>70300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-42600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>46500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>58000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E27" s="3">
         <v>83000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>84300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>84400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>77200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>70300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-42600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>46500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>58000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,29 +2341,29 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-19100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>26000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E33" s="3">
         <v>83000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>84300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>84400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>73800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>102400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>69900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-52900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>60100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>46500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>58000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E35" s="3">
         <v>83000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>84300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>84400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>73800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>102400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>69900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-52900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>60100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>46500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>58000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E41" s="3">
         <v>168700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>170400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>222800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>207300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>326500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>211100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>210000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>203800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>191200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>199900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>204700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>317300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>362200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>349600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>308400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>295900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>296300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>262200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,342 +3165,357 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>634300</v>
+      </c>
+      <c r="E43" s="3">
         <v>604200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>570900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>563400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>567600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>553800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>504300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>476900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>455300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>460500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>475800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>501500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>529500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>534300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>515300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>542400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>534600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>530600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>509900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>483000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>497700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>459200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>408400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>415000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>502400</v>
+      </c>
+      <c r="E44" s="3">
         <v>510700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>480700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>444700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>384500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>360100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>347600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>329500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>322700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>346500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>350100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>361500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>332800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>359500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>365600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>360500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>334100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>344200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>344900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>319600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>293500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>272800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>260400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>249200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E45" s="3">
         <v>83700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>92200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>86900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>67100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>67200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>86100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>85600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>67600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>56100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>66600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1406500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1367300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1314200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1295800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1244000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1198700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1126300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1143600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1096700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1220500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1121200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1159100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1122600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1173600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1157700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1170400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1125700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1249200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1279900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1204300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1151000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1084000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1025200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>993000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E47" s="3">
         <v>25600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>24200</v>
       </c>
       <c r="H47" s="3">
         <v>24200</v>
       </c>
       <c r="I47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J47" s="3">
         <v>23300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3421,8 +3526,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>594400</v>
+      </c>
+      <c r="E48" s="3">
         <v>591100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>601000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>609700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>617800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>626300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>624300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>617100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>705300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>685700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>699100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>685500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>588900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>569800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>552500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>517900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>509300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>511100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>507700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>483800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>484600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>462500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>459700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>466100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>445600</v>
+      </c>
+      <c r="E49" s="3">
         <v>410400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>423700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>379800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>384100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>386500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>387400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>379800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>384100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>369100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>378200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>379100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>374000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>383700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>388000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>386700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>274000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>277100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>280200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>277400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>278700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>268100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>268800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>270500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E52" s="3">
         <v>124800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>128700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>129300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>130100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>118900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>109800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>68100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>57600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>66900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>64000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>64500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2519200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2491300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2438500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2354600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2271100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2269400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2244600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2338500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2262200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2283300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2142600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2205900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2166300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2144000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1976600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2095000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2131300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2032400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1979700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1880300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1817700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1794100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E57" s="3">
         <v>335800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>324500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>310000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>293900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>268100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>228100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>209400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>187700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>210100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>237500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>226700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>230600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>201300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>201500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>190600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>194000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>179000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>157800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>160700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>31300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>44500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>84700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>110900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>74000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>73900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>306900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>277100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>245000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>287400</v>
+      </c>
+      <c r="E59" s="3">
         <v>239400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>250100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>230700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>264200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>236200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>249000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>203300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>209600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>172000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>191100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>193100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>157100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>183000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>224600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>191700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>216900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>185300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>216200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>169000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>180600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>157700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>629600</v>
+      </c>
+      <c r="E60" s="3">
         <v>606500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>638500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>581900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>606600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>548800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>499500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>419400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>406800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>432800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>498200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>531100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>482900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>446400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>493100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>487600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>469400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>397700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>435000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>415100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>484100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>654900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>615500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>563400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>644300</v>
+      </c>
+      <c r="E61" s="3">
         <v>607200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>553900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>548100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>461000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>454600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>495100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>576300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>617400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>735100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>595800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>596800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>584400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>644400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>632500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>630600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>499600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>687500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>667700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>631700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>537300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>298100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>297800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>324700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E62" s="3">
         <v>181900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>182100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>192600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>195500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>202100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>210200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>216600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>215800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>217000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>227700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>157300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>155000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>158500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>149800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>201700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>104600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>103800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>125300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>123700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>121300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1467100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1395600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1374500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1322600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1263100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1201200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1196700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1222600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1257500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1399700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1327400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1371700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1255300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1266200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1298900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1294400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1123600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1263300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1309000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1156100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1129600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1082600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1041200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1013500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1849000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1802600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1718000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1700400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1621200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1591200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1507600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1504900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1445900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1432800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1368600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1361100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1303200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1298300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1223800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1213800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1143400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1089100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1016400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1120200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1056900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1035900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>977300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>977500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1133200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1123600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1116800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1115900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1137100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1153400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1074400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1046800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>987100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>938800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>934800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>911600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>887300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>939700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>867400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>849600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>853000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>831700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>822300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>876300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>850100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>797700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>776500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>780600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E81" s="3">
         <v>83000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>84300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>84400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>73800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>102400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>69900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-52900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>60100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>46500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>58000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>23500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>23300</v>
       </c>
       <c r="J83" s="3">
         <v>23300</v>
       </c>
       <c r="K83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="L83" s="3">
         <v>23000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>19300</v>
       </c>
       <c r="S83" s="3">
         <v>19300</v>
       </c>
       <c r="T83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="U83" s="3">
         <v>19500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E89" s="3">
         <v>64100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>42900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>103300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>73400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>128900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>122600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>104200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>48900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>45900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>61300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>69800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>99700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-124200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-43600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-23300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,31 +6952,32 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27200</v>
+        <v>-28300</v>
       </c>
       <c r="E96" s="3">
         <v>-27200</v>
       </c>
       <c r="F96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-27400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-26600</v>
       </c>
       <c r="K96" s="3">
         <v>-26600</v>
@@ -6758,22 +6992,22 @@
         <v>-26600</v>
       </c>
       <c r="O96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-26800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-23400</v>
       </c>
       <c r="U96" s="3">
         <v>-23400</v>
@@ -6782,22 +7016,25 @@
         <v>-23400</v>
       </c>
       <c r="W96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-22900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-84900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-131700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-78900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-195800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>59300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>61300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-184700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-61500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-40000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-46200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-112600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-44900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>41200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>34100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>828300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>847300</v>
+      </c>
+      <c r="F8" s="3">
         <v>890000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>853200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>802500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>760900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>773100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>765000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>679100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>636600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>617400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>629700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>662000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>672700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>727000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>712800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>703700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>701400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>724700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>664700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>644800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>660100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>608200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>550600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>553000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>543900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>560100</v>
+      </c>
+      <c r="F9" s="3">
         <v>598400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>584200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>552700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>501400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>507400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>507000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>448000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>413900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>409500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>420500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>438800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>441400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>483200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>472100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>478300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>463000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>471700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>460400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>445800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>420500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>430600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>396700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>362700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>358800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>287200</v>
+      </c>
+      <c r="F10" s="3">
         <v>291600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>269000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>249800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>259500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>265700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>258000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>231100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>222700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>207900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>209200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>223200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>231300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>243800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>240700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>225400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>238400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>253000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>239600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>218900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>224300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>229500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>211500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>187900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>194200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,16 +1072,18 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,23 +1260,23 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>14800</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1247,11 +1287,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>728000</v>
+      </c>
+      <c r="F17" s="3">
         <v>760700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>742200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>706800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>653400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>661100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>655600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>603000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>549400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>534900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>545200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>577500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>584000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>622600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>612800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>618600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>602700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>620900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>599100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>583100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>554100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>565800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>519700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>481200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>476600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F18" s="3">
         <v>129300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>111000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>95700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>107500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>112000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>109400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>76100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>87200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>82500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>84500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>84500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>88700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>104400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>85100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>98700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>103800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>100900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>81600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>90700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>94300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>88500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>69400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>76400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1649,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>8100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>143500</v>
+      </c>
+      <c r="F21" s="3">
         <v>155500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>138600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>121800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>131300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>142000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>137900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>100500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>109000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>108200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>110600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>108900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>112500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>125300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>125300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>105700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>119900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>128400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>123900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>100500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>108800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>116200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>107600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>89500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>103400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>5400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>5200</v>
       </c>
       <c r="X22" s="3">
         <v>5100</v>
       </c>
       <c r="Y22" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="Z22" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="AA22" s="3">
         <v>4800</v>
       </c>
       <c r="AB22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AD22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>116600</v>
+      </c>
+      <c r="F23" s="3">
         <v>128600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>111300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>94500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>104100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>114000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>110900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>73900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>82200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>81300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>84400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>82800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>86600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>98800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>99500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>80500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>96400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>103500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>99000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>76400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>84700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>91700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>84300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>66300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>79700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F24" s="3">
         <v>27600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>28300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>22700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>29700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>26500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>17700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>20300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>20000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>27100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>28700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>119000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>23800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>23500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>19800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>21700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F26" s="3">
         <v>101000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>83000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>71800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>77100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>84300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>84400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>56200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>61900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>64100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>63400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>64400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>65000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>77200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>75200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>60500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>72900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>76400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>70300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-42600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>60900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>68200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>60100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>46500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>58000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F27" s="3">
         <v>101000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>83000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>71800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>77100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>84300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>84400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>56200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>61900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>64100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>63400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>64400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>77200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>75200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>60500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>72900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>76400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>70300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-42600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>60900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>68200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>60100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>46500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>58000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,31 +2419,37 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2344,32 +2466,32 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>26000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2677,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F33" s="3">
         <v>101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>83000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>71800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>77100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>84300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>84400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>56200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>61900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>64100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>63400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>64400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>58100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>75200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>60100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>73800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>102400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>69900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-52900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>60900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>68200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>60100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>46500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>58000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F35" s="3">
         <v>101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>83000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>71800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>77100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>84300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>84400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>56200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>61900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>64100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>63400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>64400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>58100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>75200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>60100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>73800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>102400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>69900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-52900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>60900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>68200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>60100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>46500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>58000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3180,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F41" s="3">
         <v>193300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>168700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>170400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>222800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>215300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>207300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>270000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>236600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>326500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>211100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>210000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>177800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>203800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>191200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>199900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>204700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>317300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>362200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>349600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>308400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>295900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>296300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>262200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,360 +3348,390 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>592200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>601100</v>
+      </c>
+      <c r="F43" s="3">
         <v>634300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>604200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>570900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>563400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>567600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>553800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>504300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>476900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>455300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>460500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>475800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>501500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>529500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>534300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>515300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>542400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>534600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>530600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>509900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>483000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>497700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>459200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>408400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>415000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>490100</v>
+      </c>
+      <c r="F44" s="3">
         <v>502400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>510700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>480700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>444700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>384500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>360100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>347600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>329500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>322700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>346500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>350100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>361500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>332800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>359500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>365600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>360500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>334100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>344200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>344900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>319600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>293500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>272800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>260400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>249200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>83200</v>
+      </c>
+      <c r="F45" s="3">
         <v>76500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>83700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>92200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>86900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>69500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>67100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>67200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>82100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>87000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>84200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>86100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>82500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>76000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>85600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>67600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>52300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>57100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>62900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>52100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>51400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>56100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>60100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>66600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1349100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1335400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1406500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1367300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1314200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1295800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1244000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1198700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1126300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1143600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1096700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1220500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1121200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1159100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1122600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1173600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1157700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1170400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1125700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1249200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1279900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1204300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1151000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1025200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>993000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F47" s="3">
         <v>22400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>23900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>24200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>24200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>23300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>22300</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3529,11 +3739,11 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3568,168 +3778,186 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>625800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>590800</v>
+      </c>
+      <c r="F48" s="3">
         <v>594400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>591100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>601000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>609700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>617800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>626300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>624300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>617100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>705300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>685700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>699100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>685500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>588900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>569800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>552500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>517900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>509300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>511100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>507700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>483800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>484600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>462500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>459700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>466100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>446600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>435300</v>
+      </c>
+      <c r="F49" s="3">
         <v>445600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>410400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>423700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>379800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>384100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>386500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>387400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>379800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>384100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>369100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>378200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>379100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>374000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>383700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>388000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>386700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>274000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>277100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>280200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>277400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>278700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>268100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>268800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>270500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4122,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F52" s="3">
         <v>131400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>124800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>128700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>129300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>130100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>118900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>109800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>106600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>58500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>63200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>63700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>59600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>57100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>78800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>68100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>69000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>67600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>57600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>63500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>66900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>65400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>65700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>64000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>64500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4294,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2578600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2519200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2491300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2438500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2354600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2271100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2269400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2244600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2338500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2262200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2283300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2142600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2205900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2166300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2144000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1976600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2095000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2131300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2032400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1979700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1880300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1817700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1794100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4448,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>320700</v>
+      </c>
+      <c r="F57" s="3">
         <v>338500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>335800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>324500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>310000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>293900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>268100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>228100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>209400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>187700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>202700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>210100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>229100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>237500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>238700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>226700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>230600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>201300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>201500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>190600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>194000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>179000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>157800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>160700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>31300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>63900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>41200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>48500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>44500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>58100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>84700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>110900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>52300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>50600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>66000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>74000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>43500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>18100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>39200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>73900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>306900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>277100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>245000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>248400</v>
+      </c>
+      <c r="F59" s="3">
         <v>287400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>239400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>250100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>230700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>264200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>236200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>249000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>203300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>209600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>172000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>203400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>191100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>193100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>157100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>183000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>224600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>191700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>216900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>185300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>216200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>169000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>180600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>157700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>580100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>569300</v>
+      </c>
+      <c r="F60" s="3">
         <v>629600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>606500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>638500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>581900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>606600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>548800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>499500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>419400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>406800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>432800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>498200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>531100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>482900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>446400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>493100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>487600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>469400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>397700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>435000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>415100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>484100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>654900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>615500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>563400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600700</v>
+      </c>
+      <c r="F61" s="3">
         <v>644300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>607200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>553900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>548100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>461000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>454600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>495100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>576300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>617400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>735100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>595800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>596800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>584400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>644400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>632500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>630600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>499600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>687500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>667700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>631700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>537300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>298100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>297800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>324700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>187200</v>
+      </c>
+      <c r="F62" s="3">
         <v>193200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>181900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>182100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>192600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>195500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>197800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>202100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>210200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>216600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>215800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>217000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>227700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>172600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>157300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>155000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>158500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>149800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>173400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>201700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>104600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>103800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>125300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>123700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>121300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1384400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1357200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1467100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1395600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1374500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1322600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1263100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1201200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1196700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1222600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1257500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1399700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1327400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1371700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1255300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1266200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1298900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1294400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1123600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1263300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1309000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1156100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1129600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1082600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1041200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1013500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1962800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1932800</v>
+      </c>
+      <c r="F72" s="3">
         <v>1849000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1802600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1718000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1700400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1621200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1591200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1507600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1504900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1445900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1432800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1368600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1361100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1303200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1298300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1223800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1213800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1143400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1089100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1016400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1120200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1056900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1035900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>977300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>977500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6024,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1154800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1133200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1123600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1116800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1115900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1137100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1153400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1074400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1046800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>987100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>938800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>934800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>911600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>887300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>939700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>867400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>849600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>853000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>831700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>822300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>876300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>850100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>797700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>776500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>780600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F81" s="3">
         <v>101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>83000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>71800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>77100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>84300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>84400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>56200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>61900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>64100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>63400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>64400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>58100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>75200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>60100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>73800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>102400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>69900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-52900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>60900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>68200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>60100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>46500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>58000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F83" s="3">
         <v>22800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>23500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>23700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>24900</v>
       </c>
       <c r="I83" s="3">
         <v>23800</v>
       </c>
       <c r="J83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="L83" s="3">
         <v>23300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>23300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>23000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>20600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>19900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>19300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>19500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>19000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>18900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>19400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>18500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>18400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>18900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F89" s="3">
         <v>108900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>64100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>36900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>42900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>96300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>103300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>73400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>128900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>121800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>88400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>90700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>86100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>122600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>80400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>79500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>63300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>104200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>48900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>45900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>63900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>87000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>61300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>69800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>99700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-28700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-18800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-18800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-26500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-42600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-37100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-45300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-38900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-28200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-24400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-27300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-25900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-19900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-37600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-48200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-23300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-64200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-18100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-42600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-37100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-45300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-38900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-124200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-23100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-27300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-25900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-19100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-23300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,37 +7419,39 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-27200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-27200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-27400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-27700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-26400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-26600</v>
       </c>
       <c r="M96" s="3">
         <v>-26600</v>
@@ -6995,46 +7463,52 @@
         <v>-26600</v>
       </c>
       <c r="P96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-24200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-24300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-24400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-23400</v>
       </c>
       <c r="W96" s="3">
         <v>-23400</v>
       </c>
       <c r="X96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-22900</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-23100</v>
       </c>
       <c r="AA96" s="3">
         <v>-23200</v>
       </c>
       <c r="AB96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7759,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-31400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-37100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-45500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-67800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-84900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-131700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-78900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-195800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>59300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-48300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-109600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-19700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-55300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>61300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-184700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-61500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-20700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-46200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-16300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-55200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1100</v>
       </c>
       <c r="H101" s="3">
         <v>-2900</v>
       </c>
       <c r="I101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>13300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>9900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F102" s="3">
         <v>24600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-30400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-62700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>33400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-89900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>115400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>32200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>12600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-112600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-44900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>12600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>41200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>12500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>34100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>19000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>875700</v>
+      </c>
+      <c r="E8" s="3">
         <v>828300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>847300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>890000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>853200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>802500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>760900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>773100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>765000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>679100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>636600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>617400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>629700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>662000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>672700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>727000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>712800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>703700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>701400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>724700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>664700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>644800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>660100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>608200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>550600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>553000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>586900</v>
+      </c>
+      <c r="E9" s="3">
         <v>543900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>560100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>598400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>584200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>552700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>507400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>507000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>448000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>413900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>409500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>420500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>438800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>441400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>483200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>472100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>478300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>463000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>471700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>460400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>445800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>420500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>430600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>396700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>362700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>358800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E10" s="3">
         <v>284400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>291600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>269000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>249800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>259500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>265700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>258000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>231100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>207900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>209200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>223200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>231300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>243800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>240700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>225400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>238400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>253000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>239600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>218900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>224300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>229500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>211500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>187900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>194200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,19 +1086,20 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18700</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1266,20 +1285,20 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14800</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1293,8 +1312,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>751700</v>
+      </c>
+      <c r="E17" s="3">
         <v>712000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>728000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>760700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>742200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>706800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>653400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>661100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>655600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>549400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>534900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>545200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>577500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>584000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>622600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>612800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>618600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>602700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>620900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>599100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>583100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>554100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>565800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>519700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>481200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>476600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E18" s="3">
         <v>116300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>129300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>111000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>109400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>84500</v>
       </c>
       <c r="P18" s="3">
         <v>84500</v>
       </c>
       <c r="Q18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="R18" s="3">
         <v>88700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>104400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>98700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>90700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>94300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>88500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>69400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>76400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,254 +1683,261 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>8100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E21" s="3">
         <v>140300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>143500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>155500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>138600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>131300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>142000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>137900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>110600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>125300</v>
       </c>
       <c r="S21" s="3">
         <v>125300</v>
       </c>
       <c r="T21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="U21" s="3">
         <v>105700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>128400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>123900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>100500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>108800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>116200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>107600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>89500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>103400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5200</v>
       </c>
       <c r="S22" s="3">
         <v>5200</v>
       </c>
       <c r="T22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U22" s="3">
         <v>5300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5100</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>4800</v>
       </c>
       <c r="AB22" s="3">
         <v>4800</v>
@@ -1907,182 +1946,191 @@
         <v>4800</v>
       </c>
       <c r="AD22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AE22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E23" s="3">
         <v>113300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>128600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>111300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>94500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>104100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>114000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>82800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>99500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>80500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>96400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>103500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>99000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>76400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>84700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>91700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>84300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>66300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>79700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E24" s="3">
         <v>27300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>21600</v>
       </c>
       <c r="R24" s="3">
         <v>21600</v>
       </c>
       <c r="S24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="T24" s="3">
         <v>24300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>119000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>19800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>21700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E26" s="3">
         <v>86000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>77100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>84300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>75200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>72900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>70300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>60900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>68200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>60100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>46500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>58000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>84300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>63400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>64400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>77200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>76400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>70300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>60900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>68200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>60100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>46500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>58000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2451,8 +2511,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2472,29 +2532,29 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-19100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>26000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>84300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>63400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>64400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>73800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>102400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>69900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-52900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>60900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>68200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>60100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>46500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>58000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>84300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>63400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>64400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>73800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>102400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>69900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-52900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>60900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>68200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>60100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>46500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>58000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E41" s="3">
         <v>179400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>222800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>215300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>207300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>236600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>326500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>211100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>210000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>203800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>191200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>199900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>204700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>317300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>362200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>349600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>308400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>295900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>296300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>262200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,387 +3443,402 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E43" s="3">
         <v>592200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>601100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>634300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>604200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>570900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>563400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>567600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>553800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>504300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>476900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>455300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>460500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>475800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>501500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>529500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>534300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>515300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>542400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>534600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>530600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>509900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>483000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>497700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>459200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>408400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>415000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>449700</v>
+      </c>
+      <c r="E44" s="3">
         <v>501300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>490100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>502400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>510700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>480700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>444700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>384500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>360100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>347600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>329500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>322700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>346500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>350100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>361500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>332800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>359500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>365600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>360500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>334100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>344200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>344900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>319600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>293500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>272800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>260400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>249200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E45" s="3">
         <v>76200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>84200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>82500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>76000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>85600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>67600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>57100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>62900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>52100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>56100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>60100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>66600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1352600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1349100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1335400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1406500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1367300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1314200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1295800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1244000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1198700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1126300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1143600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1096700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1220500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1121200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1159100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1122600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1173600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1157700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1170400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1125700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1249200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1279900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1204300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1151000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1084000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1025200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>993000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E47" s="3">
         <v>20500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>24200</v>
       </c>
       <c r="K47" s="3">
         <v>24200</v>
       </c>
       <c r="L47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="M47" s="3">
         <v>23300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22300</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3745,8 +3849,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3784,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>640900</v>
+      </c>
+      <c r="E48" s="3">
         <v>625800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>590800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>594400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>591100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>601000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>609700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>617800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>626300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>624300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>617100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>705300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>685700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>699100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>685500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>588900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>569800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>552500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>517900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>509300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>511100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>507700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>483800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>484600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>462500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>459700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>466100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>519100</v>
+      </c>
+      <c r="E49" s="3">
         <v>446600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>435300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>445600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>410400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>423700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>379800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>384100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>386500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>387400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>379800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>384100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>369100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>378200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>379100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>374000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>383700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>388000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>386700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>274000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>277100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>280200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>277400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>278700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>268100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>268800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>270500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E52" s="3">
         <v>136600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>131400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>124800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>128700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>129300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>130100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>118900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>78800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>68100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>67600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>57600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>63500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>66900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>65400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>65700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>64000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>64500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2675500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2578600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2512000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2600300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2519200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2491300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2438500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2354600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2271100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2269400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2244600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2338500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2262200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2283300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2142600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2205900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2166300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2144000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1976600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2095000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2131300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2032400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1979700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1880300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1817700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1794100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>311100</v>
+      </c>
+      <c r="E57" s="3">
         <v>302100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>320700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>338500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>335800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>324500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>310000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>293900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>268100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>228100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>209400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>187700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>202700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>210100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>229100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>226700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>230600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>201300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>201500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>190600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>194000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>179000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>157800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>160700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>63900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>44500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>84700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>110900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>52300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>66000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>74000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>43500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>18100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>39200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>73900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>306900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>277100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>245000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E59" s="3">
         <v>274000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>248400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>287400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>239400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>250100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>230700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>236200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>209600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>172000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>191100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>193100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>157100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>183000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>224600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>191700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>216900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>185300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>216200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>169000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>180600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>157700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E60" s="3">
         <v>580100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>569300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>606500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>638500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>581900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>606600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>548800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>499500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>419400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>406800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>432800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>498200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>531100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>482900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>446400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>493100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>487600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>469400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>397700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>435000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>415100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>484100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>654900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>615500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>563400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>470500</v>
+      </c>
+      <c r="E61" s="3">
         <v>624800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>644300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>607200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>553900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>548100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>461000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>454600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>495100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>576300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>617400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>735100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>595800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>596800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>584400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>644400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>632500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>630600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>499600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>687500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>667700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>631700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>537300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>298100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>297800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>324700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E62" s="3">
         <v>179500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>187200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>193200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>181900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>182100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>192600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>195500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>202100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>210200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>216600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>215800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>217000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>157300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>155000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>158500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>149800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>173400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>201700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>104600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>103800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>125300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>123700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>121300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1376800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1384400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1357200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1467100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1395600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1374500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1322600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1263100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1201200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1196700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1222600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1257500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1399700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1327400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1371700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1255300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1266200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1298900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1294400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1123600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1263300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1309000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1156100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1129600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1082600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1041200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1013500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2056500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1962800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1932800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1849000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1802600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1718000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1621200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1591200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1507600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1504900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1445900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1432800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1368600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1361100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1303200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1298300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1223800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1213800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1143400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1089100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1016400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1120200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1056900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1035900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>977300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>977500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1298700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1194200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1154800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1133200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1123600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1116800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1115900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1137100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1153400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1074400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1046800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>987100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>938800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>934800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>911600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>887300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>939700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>867400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>849600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>853000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>831700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>822300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>876300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>850100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>797700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>776500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>780600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>84300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>63400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>64400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>73800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>102400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>69900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-52900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>60900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>68200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>60100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>46500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>58000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E83" s="3">
         <v>22400</v>
       </c>
       <c r="F83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G83" s="3">
         <v>22800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>23300</v>
       </c>
       <c r="M83" s="3">
         <v>23300</v>
       </c>
       <c r="N83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="O83" s="3">
         <v>23000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19900</v>
-      </c>
-      <c r="U83" s="3">
-        <v>19300</v>
       </c>
       <c r="V83" s="3">
         <v>19300</v>
       </c>
       <c r="W83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="X83" s="3">
         <v>19500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>18500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>18400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>18900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E89" s="3">
         <v>102300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>118200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>108900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>64100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>42900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>96300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>103300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>73400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>121800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>122600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>104200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>48900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>45900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>63900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>61300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>69800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>99700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-37600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-124200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-43600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-12600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-23300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,40 +7653,41 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-27200</v>
       </c>
       <c r="H96" s="3">
         <v>-27200</v>
       </c>
       <c r="I96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-26600</v>
       </c>
       <c r="N96" s="3">
         <v>-26600</v>
@@ -7469,22 +7702,22 @@
         <v>-26600</v>
       </c>
       <c r="R96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-26800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-23400</v>
       </c>
       <c r="X96" s="3">
         <v>-23400</v>
@@ -7493,22 +7726,25 @@
         <v>-23400</v>
       </c>
       <c r="Z96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-22900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-23100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-23200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-37100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-84900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-131700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-78900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-195800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>59300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>61300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-184700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-61500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-46200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-16300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-55200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>9600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>18400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-89900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-112600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-44900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>41200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>34100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>19000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>DCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>879500</v>
+      </c>
+      <c r="E8" s="3">
         <v>875700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>828300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>847300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>890000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>853200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>802500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>760900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>773100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>765000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>679100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>636600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>617400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>629700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>662000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>672700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>727000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>712800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>703700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>701400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>724700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>664700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>644800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>660100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>608200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>550600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>553000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>593800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>579400</v>
+      </c>
+      <c r="E9" s="3">
         <v>586900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>543900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>560100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>598400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>584200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>552700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>507400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>507000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>448000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>413900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>409500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>420500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>438800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>441400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>483200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>472100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>478300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>463000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>471700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>460400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>445800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>420500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>430600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>396700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>362700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>358800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>384500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E10" s="3">
         <v>288800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>284400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>287200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>291600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>249800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>259500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>258000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>231100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>207900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>209200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>223200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>231300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>243800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>240700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>225400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>238400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>253000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>239600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>218900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>224300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>229500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>211500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>187900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>194200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,22 +1100,23 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18700</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,20 +1308,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14800</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1315,8 +1335,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>758900</v>
+      </c>
+      <c r="E17" s="3">
         <v>751700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>712000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>728000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>760700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>742200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>706800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>653400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>661100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>655600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>603000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>549400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>534900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>545200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>577500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>584000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>622600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>612800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>618600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>602700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>620900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>599100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>583100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>554100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>565800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>519700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>481200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>476600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>503700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E18" s="3">
         <v>124000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>116300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>129300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>111000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>84500</v>
       </c>
       <c r="Q18" s="3">
         <v>84500</v>
       </c>
       <c r="R18" s="3">
+        <v>84500</v>
+      </c>
+      <c r="S18" s="3">
         <v>88700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>104400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>85100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>98700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>103800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>81600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>94300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>88500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>69400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>76400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>90100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,263 +1717,270 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>8100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E21" s="3">
         <v>149100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>140300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>143500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>155500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>138600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>121800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>131300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>137900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>109000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>112500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>125300</v>
       </c>
       <c r="T21" s="3">
         <v>125300</v>
       </c>
       <c r="U21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="V21" s="3">
         <v>105700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>119900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>128400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>123900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>100500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>108800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>116200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>107600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>89500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>103400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>106400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5200</v>
       </c>
       <c r="T22" s="3">
         <v>5200</v>
       </c>
       <c r="U22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V22" s="3">
         <v>5300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5100</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>4800</v>
       </c>
       <c r="AC22" s="3">
         <v>4800</v>
@@ -1949,188 +1989,197 @@
         <v>4800</v>
       </c>
       <c r="AE22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AF22" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E23" s="3">
         <v>121500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>113300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>128600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>111300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>94500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>104100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>114000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>82200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>82800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>86600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>99500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>80500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>96400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>103500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>99000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>76400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>84700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>91700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>84300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>66300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>79700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E24" s="3">
         <v>27800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>21600</v>
       </c>
       <c r="S24" s="3">
         <v>21600</v>
       </c>
       <c r="T24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="U24" s="3">
         <v>24300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>119000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>19800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>21700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E26" s="3">
         <v>93700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>86000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>77200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>75200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>72900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>76400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>70300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>60900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>68200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>60100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>46500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>58000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E27" s="3">
         <v>93700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>86000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>63400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>64400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>77200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>72900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>76400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>70300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>60900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>68200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>60100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>46500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>58000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2514,8 +2575,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2535,29 +2596,29 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-19100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>26000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E33" s="3">
         <v>93700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>86000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>87200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>77100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>63400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>58100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>73800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>102400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>69900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-52900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>60900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>68200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>60100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>46500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>58000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E35" s="3">
         <v>93700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>86000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>87200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>77100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>63400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>58100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>73800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>102400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>69900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-52900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>60900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>68200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>60100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>46500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>58000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E41" s="3">
         <v>186000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>222800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>215300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>207300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>236600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>326500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>211100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>210000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>177800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>203800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>191200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>199900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>204700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>317300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>362200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>349600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>308400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>295900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>296300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>262200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>243200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,402 +3536,417 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E43" s="3">
         <v>641700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>592200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>601100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>634300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>604200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>570900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>563400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>567600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>553800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>504300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>476900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>455300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>460500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>475800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>501500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>529500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>534300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>515300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>542400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>534600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>530600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>509900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>483000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>497700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>459200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>408400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>415000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>418100</v>
+      </c>
+      <c r="E44" s="3">
         <v>449700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>501300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>490100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>502400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>510700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>480700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>444700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>384500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>360100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>347600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>329500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>322700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>346500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>350100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>361500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>332800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>359500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>365600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>360500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>334100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>344200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>344900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>319600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>293500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>272800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>260400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>249200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>234100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E45" s="3">
         <v>75200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>92200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>86900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>67200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>84200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>82500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>76000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>85600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>67600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>57100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>62900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>52100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>51400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>56100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>60100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>66600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1286000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1352600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1349100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1335400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1406500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1367300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1314200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1295800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1244000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1198700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1126300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1143600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1096700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1220500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1121200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1159100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1122600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1173600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1157700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1170400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1125700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1249200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1279900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1204300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1151000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1084000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1025200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>993000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1009700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E47" s="3">
         <v>24300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>24200</v>
       </c>
       <c r="L47" s="3">
         <v>24200</v>
       </c>
       <c r="M47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="N47" s="3">
         <v>23300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22300</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3852,8 +3957,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3891,186 +3996,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>652900</v>
+      </c>
+      <c r="E48" s="3">
         <v>640900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>625800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>590800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>594400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>591100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>601000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>609700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>617800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>626300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>624300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>617100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>705300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>685700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>699100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>685500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>588900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>569800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>552500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>517900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>509300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>511100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>507700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>483800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>484600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>462500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>459700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>466100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2771000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>669200</v>
+      </c>
+      <c r="E49" s="3">
         <v>519100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>446600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>435300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>445600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>410400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>423700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>379800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>384100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>386500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>387400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>379800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>384100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>369100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>378200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>379100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>374000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>383700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>388000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>386700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>274000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>277100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>280200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>277400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>278700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>268100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>268800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>270500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>306300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E52" s="3">
         <v>138600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>130100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>131400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>128700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>129300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>130100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>118900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>57100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>68100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>57600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>63500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>66900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>65400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>65700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>64000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>64500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>39700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2770500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2675500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2578600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2512000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2519200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2491300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2438500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2400200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2354600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2271100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2269400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2244600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2338500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2262200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2283300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2142600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2205900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2166300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2144000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1976600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2095000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2131300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2032400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1979700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1880300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1817700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1794100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E57" s="3">
         <v>311100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>302100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>320700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>338500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>335800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>324500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>310000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>293900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>268100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>228100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>209400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>187700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>202700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>210100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>226700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>230600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>201300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>201500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>190600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>194000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>179000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>157800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>160700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>143300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E58" s="3">
         <v>151600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>31300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>84700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>110900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>52300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>50600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>66000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>74000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>43500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>18100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>73900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>306900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>277100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>245000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E59" s="3">
         <v>249300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>274000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>248400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>287400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>239400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>250100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>230700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>264200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>236200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>209600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>172000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>191100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>193100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>157100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>183000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>224600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>191700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>216900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>185300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>216200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>169000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>180600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>157700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>183800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>756400</v>
+      </c>
+      <c r="E60" s="3">
         <v>712000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>580100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>569300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>629600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>606500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>638500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>581900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>606600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>548800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>499500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>419400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>406800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>432800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>498200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>531100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>482900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>446400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>493100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>487600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>469400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>397700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>435000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>415100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>484100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>654900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>615500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>563400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>543800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>496600</v>
+      </c>
+      <c r="E61" s="3">
         <v>470500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>624800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>644300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>607200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>553900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>548100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>461000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>454600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>495100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>576300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>617400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>735100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>595800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>596800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>584400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>644400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>632500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>630600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>499600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>687500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>667700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>631700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>537300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>298100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>297800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>324700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>350200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E62" s="3">
         <v>194300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>179500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>187200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>193200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>181900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>182100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>192600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>195500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>197800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>202100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>210200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>216600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>215800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>217000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>227700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>157300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>155000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>158500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>149800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>173400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>201700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>104600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>103800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>125300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>123700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>121300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1449800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1376800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1384400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1357200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1467100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1395600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1374500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1322600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1263100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1201200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1196700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1222600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1257500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1399700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1327400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1371700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1255300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1266200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1298900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1294400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1123600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1263300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1309000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1156100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1129600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1082600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1041200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1013500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1019600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2087800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2056500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1962800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1932800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1849000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1802600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1718000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1621200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1591200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1507600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1504900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1445900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1432800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1368600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1361100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1303200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1298300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1223800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1213800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1143400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1089100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1016400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1120200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1056900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1035900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>977300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>977500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>921800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1320700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1298700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1194200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1154800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1133200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1123600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1116800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1115900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1137100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1153400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1074400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1046800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>987100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>938800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>934800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>911600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>887300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>939700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>867400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>849600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>853000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>831700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>822300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>876300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>850100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>797700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>776500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>780600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>767400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E81" s="3">
         <v>93700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>86000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>87200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>77100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>63400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>58100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>73800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>102400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>69900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-52900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>60900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>68200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>60100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>46500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>58000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
         <v>22500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>22400</v>
       </c>
       <c r="F83" s="3">
         <v>22400</v>
       </c>
       <c r="G83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H83" s="3">
         <v>22800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>23300</v>
       </c>
       <c r="N83" s="3">
         <v>23300</v>
       </c>
       <c r="O83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="P83" s="3">
         <v>23000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19900</v>
-      </c>
-      <c r="V83" s="3">
-        <v>19300</v>
       </c>
       <c r="W83" s="3">
         <v>19300</v>
       </c>
       <c r="X83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>19500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>19400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>18500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>18400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>18900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E89" s="3">
         <v>133200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>102300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>118200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>108900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>64100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>103300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>73400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>90700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>122600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>104200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>48900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>45900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>63900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>87000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>61300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>69800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>99700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-37600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-172200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-124200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-43600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-12600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-23300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,43 +7887,44 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-27200</v>
       </c>
       <c r="I96" s="3">
         <v>-27200</v>
       </c>
       <c r="J96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-26500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-26600</v>
       </c>
       <c r="O96" s="3">
         <v>-26600</v>
@@ -7705,22 +7939,22 @@
         <v>-26600</v>
       </c>
       <c r="S96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-26800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-24400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-24500</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-23400</v>
       </c>
       <c r="Y96" s="3">
         <v>-23400</v>
@@ -7729,22 +7963,25 @@
         <v>-23400</v>
       </c>
       <c r="AA96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-23100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-23200</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-23300</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-112800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-37100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-84900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-131700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-78900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-195800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>61300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-184700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-61500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-46200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-16300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-55200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-73500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-89900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-112600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-44900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>41200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>12500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>34100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>19000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4200</v>
       </c>
     </row>
